--- a/Finflux Automation Excels/Client/4573-RBI-ACT2CTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-Make-lessRepay-09JAN-OVERDUEFEEFLAT-PRODUCTIVE_COLLSHEETON09JAN.xlsx
+++ b/Finflux Automation Excels/Client/4573-RBI-ACT2CTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-Make-lessRepay-09JAN-OVERDUEFEEFLAT-PRODUCTIVE_COLLSHEETON09JAN.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="NewLoanInput" sheetId="14" r:id="rId5"/>
     <sheet name="Summary" sheetId="16" r:id="rId6"/>
     <sheet name="Repayment schedule" sheetId="17" r:id="rId7"/>
-    <sheet name="Transactions" sheetId="18" r:id="rId8"/>
-    <sheet name="Repay1" sheetId="23" r:id="rId9"/>
+    <sheet name="Modify Transaction1" sheetId="24" r:id="rId8"/>
+    <sheet name="Transactions" sheetId="18" r:id="rId9"/>
+    <sheet name="Repay1" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>submittedon</t>
   </si>
@@ -152,9 +153,6 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>heading</t>
-  </si>
-  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -282,6 +280,18 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>OverDueTillDate</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>navigate</t>
   </si>
 </sst>
 </file>
@@ -292,10 +302,17 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -314,10 +331,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -340,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -363,60 +384,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -426,24 +417,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -808,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -845,7 +839,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -853,15 +847,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="5">
         <v>42005</v>
@@ -869,31 +863,31 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="21">
+        <v>82</v>
+      </c>
+      <c r="B11" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -901,7 +895,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -910,6 +904,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="21">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="22">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -928,11 +965,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>77</v>
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -976,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1021,41 +1058,42 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="B2" s="4">
         <v>42013</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>80</v>
+      <c r="A3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>69</v>
+      <c r="A4" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1063,7 +1101,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1071,7 +1109,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1117,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,28 +1240,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1238,10 +1276,10 @@
       <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>9177.19</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>9177.19</v>
       </c>
     </row>
@@ -1286,11 +1324,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>1200</v>
+      <c r="A5" s="13">
+        <v>0</v>
       </c>
       <c r="B5" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13">
         <v>0</v>
@@ -1298,11 +1336,11 @@
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
-        <v>1100</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1100</v>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1353,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1323,61 +1361,57 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>42006</v>
       </c>
       <c r="D2" s="13"/>
@@ -1410,17 +1444,17 @@
       <c r="B3" s="13">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>42013</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>42013</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="13">
         <v>822.81</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>9177.19</v>
       </c>
       <c r="H3" s="13">
@@ -1430,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L3" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="M3" s="13">
         <v>0</v>
@@ -1445,6 +1479,7 @@
       <c r="O3" s="13">
         <v>0</v>
       </c>
+      <c r="P3" s="13"/>
       <c r="Q3" s="13">
         <v>0</v>
       </c>
@@ -1456,7 +1491,7 @@
       <c r="B4" s="13">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>42020</v>
       </c>
       <c r="D4" s="13"/>
@@ -1464,7 +1499,7 @@
       <c r="F4" s="13">
         <v>824.71</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>8352.48</v>
       </c>
       <c r="H4" s="13">
@@ -1474,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L4" s="13">
         <v>0</v>
@@ -1489,8 +1524,9 @@
       <c r="O4" s="13">
         <v>0</v>
       </c>
+      <c r="P4" s="13"/>
       <c r="Q4" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1500,7 +1536,7 @@
       <c r="B5" s="13">
         <v>7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>42027</v>
       </c>
       <c r="D5" s="13"/>
@@ -1508,7 +1544,7 @@
       <c r="F5" s="13">
         <v>826.62</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>7525.86</v>
       </c>
       <c r="H5" s="13">
@@ -1518,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L5" s="13">
         <v>0</v>
@@ -1533,8 +1569,9 @@
       <c r="O5" s="13">
         <v>0</v>
       </c>
+      <c r="P5" s="13"/>
       <c r="Q5" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1544,7 +1581,7 @@
       <c r="B6" s="13">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>42034</v>
       </c>
       <c r="D6" s="13"/>
@@ -1552,7 +1589,7 @@
       <c r="F6" s="13">
         <v>828.52</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>6697.34</v>
       </c>
       <c r="H6" s="13">
@@ -1562,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L6" s="13">
         <v>0</v>
@@ -1577,8 +1614,9 @@
       <c r="O6" s="13">
         <v>0</v>
       </c>
+      <c r="P6" s="13"/>
       <c r="Q6" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1588,7 +1626,7 @@
       <c r="B7" s="13">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>42041</v>
       </c>
       <c r="D7" s="13"/>
@@ -1596,7 +1634,7 @@
       <c r="F7" s="13">
         <v>830.43</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>5866.91</v>
       </c>
       <c r="H7" s="13">
@@ -1606,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L7" s="13">
         <v>0</v>
@@ -1621,8 +1659,9 @@
       <c r="O7" s="13">
         <v>0</v>
       </c>
+      <c r="P7" s="13"/>
       <c r="Q7" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1632,7 +1671,7 @@
       <c r="B8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>42048</v>
       </c>
       <c r="D8" s="13"/>
@@ -1640,7 +1679,7 @@
       <c r="F8" s="13">
         <v>832.35</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>5034.5600000000004</v>
       </c>
       <c r="H8" s="13">
@@ -1650,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -1665,8 +1704,9 @@
       <c r="O8" s="13">
         <v>0</v>
       </c>
+      <c r="P8" s="13"/>
       <c r="Q8" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1676,7 +1716,7 @@
       <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>42055</v>
       </c>
       <c r="D9" s="13"/>
@@ -1684,7 +1724,7 @@
       <c r="F9" s="13">
         <v>834.27</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>4200.29</v>
       </c>
       <c r="H9" s="13">
@@ -1694,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -1709,8 +1749,9 @@
       <c r="O9" s="13">
         <v>0</v>
       </c>
+      <c r="P9" s="13"/>
       <c r="Q9" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1720,7 +1761,7 @@
       <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>42062</v>
       </c>
       <c r="D10" s="13"/>
@@ -1728,7 +1769,7 @@
       <c r="F10" s="13">
         <v>836.2</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>3364.09</v>
       </c>
       <c r="H10" s="13">
@@ -1738,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -1753,8 +1794,9 @@
       <c r="O10" s="13">
         <v>0</v>
       </c>
+      <c r="P10" s="13"/>
       <c r="Q10" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1764,7 +1806,7 @@
       <c r="B11" s="13">
         <v>7</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>42069</v>
       </c>
       <c r="D11" s="13"/>
@@ -1772,7 +1814,7 @@
       <c r="F11" s="13">
         <v>838.13</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <v>2525.96</v>
       </c>
       <c r="H11" s="13">
@@ -1782,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>
@@ -1797,8 +1839,9 @@
       <c r="O11" s="13">
         <v>0</v>
       </c>
+      <c r="P11" s="13"/>
       <c r="Q11" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1808,7 +1851,7 @@
       <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>42076</v>
       </c>
       <c r="D12" s="13"/>
@@ -1816,7 +1859,7 @@
       <c r="F12" s="13">
         <v>840.06</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>1685.9</v>
       </c>
       <c r="H12" s="13">
@@ -1826,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -1841,8 +1884,9 @@
       <c r="O12" s="13">
         <v>0</v>
       </c>
+      <c r="P12" s="13"/>
       <c r="Q12" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1852,7 +1896,7 @@
       <c r="B13" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>42083</v>
       </c>
       <c r="D13" s="13"/>
@@ -1870,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
       <c r="L13" s="13">
         <v>0</v>
@@ -1885,8 +1929,9 @@
       <c r="O13" s="13">
         <v>0</v>
       </c>
+      <c r="P13" s="13"/>
       <c r="Q13" s="13">
-        <v>945.89</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1896,7 +1941,7 @@
       <c r="B14" s="13">
         <v>7</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>42090</v>
       </c>
       <c r="D14" s="13"/>
@@ -1914,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="13">
-        <v>945.85</v>
+        <v>845.85</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -1929,8 +1974,9 @@
       <c r="O14" s="13">
         <v>0</v>
       </c>
+      <c r="P14" s="13"/>
       <c r="Q14" s="13">
-        <v>945.85</v>
+        <v>845.85</v>
       </c>
     </row>
   </sheetData>
@@ -1939,6 +1985,48 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10">
+        <v>42020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1950,34 +2038,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1985,13 +2073,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="16">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="12">
         <v>10000</v>
@@ -2010,45 +2098,6 @@
       </c>
       <c r="J2" s="12">
         <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="24">
-        <v>42013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="25">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
